--- a/djangoConfig/api/data/aeroportos.xlsx
+++ b/djangoConfig/api/data/aeroportos.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - bquxjob_6ddd5a36_1847" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet 1 - bquxjob_6ddd5a36_1847"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="851">
   <si>
     <t>OACI</t>
   </si>
@@ -472,7 +475,7 @@
     <t>HORÁCIO DE MATTOS</t>
   </si>
   <si>
-    <t>LEN�ÓIS</t>
+    <t>LENÓIS</t>
   </si>
   <si>
     <t>SNTF</t>
@@ -2569,26 +2572,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2600,14 +2604,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FF0000ff"/>
       </patternFill>
     </fill>
   </fills>
@@ -2621,184 +2623,186 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color rgb="FF00ff00"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color rgb="FF00ff00"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color rgb="FF00ff00"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color rgb="FF00ff00"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color rgb="FF00ff00"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color rgb="FF00ff00"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color rgb="FF00ff00"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color rgb="FF00ff00"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFff0000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Blank">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="5E5E5E"/>
@@ -2828,22 +2832,82 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="FF00FF"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Blank">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Blank">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2864,50 +2928,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2916,13 +2983,42 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -2946,7 +3042,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -2959,13 +3055,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -2977,5132 +3072,4268 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:lnDef>
-    <a:txDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:txDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.17188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.17188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.17188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="68.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1719" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" style="14" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="33.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="68.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="25.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>34</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="F3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="13">
         <v>58</v>
       </c>
-      <c r="H3" t="s" s="9">
+      <c r="H3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s" s="9">
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s" s="9">
+      <c r="F4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="13">
         <v>40</v>
       </c>
-      <c r="H4" t="s" s="9">
+      <c r="H4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s" s="9">
+      <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s" s="9">
+      <c r="E5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s" s="9">
+      <c r="F5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="13">
         <v>21</v>
       </c>
-      <c r="H5" t="s" s="9">
+      <c r="H5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s" s="9">
+      <c r="I5" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="9">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s" s="9">
+      <c r="E6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="9">
+      <c r="F6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="13">
         <v>108</v>
       </c>
-      <c r="H6" t="s" s="9">
+      <c r="H6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="9">
+      <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s" s="9">
+      <c r="E7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s" s="9">
+      <c r="F7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="13">
         <v>30</v>
       </c>
-      <c r="H7" t="s" s="9">
+      <c r="H7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I7" t="s" s="9">
+      <c r="I7" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s" s="9">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s" s="9">
+      <c r="E8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s" s="9">
+      <c r="F8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="13">
         <v>27</v>
       </c>
-      <c r="H8" t="s" s="9">
+      <c r="H8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I8" t="s" s="9">
+      <c r="I8" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="C9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s" s="9">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="E9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F9" t="s" s="9">
+      <c r="F9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="13">
         <v>178</v>
       </c>
-      <c r="H9" t="s" s="9">
+      <c r="H9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s" s="9">
+      <c r="I9" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s" s="9">
+      <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="9">
+      <c r="E10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s" s="9">
+      <c r="F10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="13">
         <v>100</v>
       </c>
-      <c r="H10" t="s" s="9">
+      <c r="H10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s" s="9">
+      <c r="I10" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="C11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="9">
+      <c r="E11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F11" t="s" s="9">
+      <c r="F11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="13">
         <v>135</v>
       </c>
-      <c r="H11" t="s" s="9">
+      <c r="H11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I11" t="s" s="9">
+      <c r="I11" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s" s="9">
+      <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="9">
+      <c r="E12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F12" t="s" s="9">
+      <c r="F12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="13">
         <v>80</v>
       </c>
-      <c r="H12" t="s" s="9">
+      <c r="H12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I12" t="s" s="9">
+      <c r="I12" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s" s="9">
+      <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s" s="9">
+      <c r="D13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="9">
+      <c r="E13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F13" t="s" s="9">
+      <c r="F13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="13">
         <v>99</v>
       </c>
-      <c r="H13" t="s" s="9">
+      <c r="H13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I13" t="s" s="9">
+      <c r="I13" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.05">
+      <c r="A14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C14" t="s" s="9">
+      <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s" s="9">
+      <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="9">
+      <c r="E14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F14" t="s" s="9">
+      <c r="F14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="13">
         <v>16</v>
       </c>
-      <c r="H14" t="s" s="9">
+      <c r="H14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I14" t="s" s="9">
+      <c r="I14" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.05">
+      <c r="A15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="C15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s" s="9">
+      <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="9">
+      <c r="E15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F15" t="s" s="9">
+      <c r="F15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="13">
         <v>576</v>
       </c>
-      <c r="H15" t="s" s="9">
+      <c r="H15" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I15" t="s" s="9">
+      <c r="I15" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.05">
+      <c r="A16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B16" t="s" s="8">
+      <c r="B16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C16" t="s" s="9">
+      <c r="C16" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="s" s="9">
+      <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="9">
+      <c r="E16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s" s="9">
+      <c r="F16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="13">
         <v>772</v>
       </c>
-      <c r="H16" t="s" s="9">
+      <c r="H16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I16" t="s" s="9">
+      <c r="I16" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.05">
+      <c r="A17" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="B17" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s" s="9">
+      <c r="C17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D17" t="s" s="9">
+      <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="9">
+      <c r="E17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F17" t="s" s="9">
+      <c r="F17" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="13">
         <v>567</v>
       </c>
-      <c r="H17" t="s" s="9">
+      <c r="H17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s" s="9">
+      <c r="I17" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.05">
+      <c r="A18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B18" t="s" s="8">
+      <c r="B18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C18" t="s" s="9">
+      <c r="C18" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D18" t="s" s="9">
+      <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="9">
+      <c r="E18" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F18" t="s" s="9">
+      <c r="F18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="13">
         <v>752</v>
       </c>
-      <c r="H18" t="s" s="9">
+      <c r="H18" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I18" t="s" s="9">
+      <c r="I18" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.05">
+      <c r="A19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="B19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C19" t="s" s="9">
+      <c r="C19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="9">
+      <c r="E19" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F19" t="s" s="9">
+      <c r="F19" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="13">
         <v>796</v>
       </c>
-      <c r="H19" t="s" s="9">
+      <c r="H19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I19" t="s" s="9">
+      <c r="I19" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.05">
+      <c r="A20" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B20" t="s" s="8">
+      <c r="B20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="s" s="9">
+      <c r="C20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D20" t="s" s="9">
+      <c r="D20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="9">
+      <c r="E20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F20" t="s" s="9">
+      <c r="F20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="13">
         <v>271</v>
       </c>
-      <c r="H20" t="s" s="9">
+      <c r="H20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I20" t="s" s="9">
+      <c r="I20" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.05">
+      <c r="A21" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B21" t="s" s="8">
+      <c r="B21" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C21" t="s" s="9">
+      <c r="C21" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D21" t="s" s="9">
+      <c r="D21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="9">
+      <c r="E21" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F21" t="s" s="9">
+      <c r="F21" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="13">
         <v>140</v>
       </c>
-      <c r="H21" t="s" s="9">
+      <c r="H21" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I21" t="s" s="9">
+      <c r="I21" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.05">
+      <c r="A22" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B22" t="s" s="8">
+      <c r="B22" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C22" t="s" s="9">
+      <c r="C22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D22" t="s" s="9">
+      <c r="D22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="9">
+      <c r="E22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F22" t="s" s="9">
+      <c r="F22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="13">
         <v>199</v>
       </c>
-      <c r="H22" t="s" s="9">
+      <c r="H22" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I22" t="s" s="9">
+      <c r="I22" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.05">
+      <c r="A23" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B23" t="s" s="8">
+      <c r="B23" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s" s="9">
+      <c r="C23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D23" t="s" s="9">
+      <c r="D23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="9">
+      <c r="E23" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F23" t="s" s="9">
+      <c r="F23" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="13">
         <v>900</v>
       </c>
-      <c r="H23" t="s" s="9">
+      <c r="H23" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I23" t="s" s="9">
+      <c r="I23" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.05">
+      <c r="A24" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B24" t="s" s="8">
+      <c r="B24" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C24" t="s" s="9">
+      <c r="C24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="9">
+      <c r="D24" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E24" t="s" s="9">
+      <c r="E24" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F24" t="s" s="9">
+      <c r="F24" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="13">
         <v>26</v>
       </c>
-      <c r="H24" t="s" s="9">
+      <c r="H24" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="I24" t="s" s="9">
+      <c r="I24" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.05">
+      <c r="A25" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B25" t="s" s="8">
+      <c r="B25" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C25" t="s" s="9">
+      <c r="C25" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D25" t="s" s="9">
+      <c r="D25" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E25" t="s" s="9">
+      <c r="E25" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F25" t="s" s="9">
+      <c r="F25" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="13">
         <v>553</v>
       </c>
-      <c r="H25" t="s" s="9">
+      <c r="H25" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I25" t="s" s="9">
+      <c r="I25" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.05">
+      <c r="A26" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B26" t="s" s="8">
+      <c r="B26" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C26" t="s" s="9">
+      <c r="C26" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D26" t="s" s="9">
+      <c r="D26" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E26" t="s" s="9">
+      <c r="E26" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F26" t="s" s="9">
+      <c r="F26" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="13">
         <v>748</v>
       </c>
-      <c r="H26" t="s" s="9">
+      <c r="H26" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I26" t="s" s="9">
+      <c r="I26" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.05">
+      <c r="A27" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B27" t="s" s="8">
+      <c r="B27" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C27" t="s" s="9">
+      <c r="C27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D27" t="s" s="9">
+      <c r="D27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E27" t="s" s="9">
+      <c r="E27" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="F27" t="s" s="9">
+      <c r="F27" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="13">
         <v>506</v>
       </c>
-      <c r="H27" t="s" s="9">
+      <c r="H27" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I27" t="s" s="9">
+      <c r="I27" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.05">
+      <c r="A28" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B28" t="s" s="8">
+      <c r="B28" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C28" t="s" s="9">
+      <c r="C28" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D28" t="s" s="9">
+      <c r="D28" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E28" t="s" s="9">
+      <c r="E28" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F28" t="s" s="9">
+      <c r="F28" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="13">
         <v>105</v>
       </c>
-      <c r="H28" t="s" s="9">
+      <c r="H28" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I28" t="s" s="9">
+      <c r="I28" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.05">
+      <c r="A29" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B29" t="s" s="8">
+      <c r="B29" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C29" t="s" s="9">
+      <c r="C29" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D29" t="s" s="9">
+      <c r="D29" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E29" t="s" s="9">
+      <c r="E29" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F29" t="s" s="9">
+      <c r="F29" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="13">
         <v>269</v>
       </c>
-      <c r="H29" t="s" s="9">
+      <c r="H29" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I29" t="s" s="9">
+      <c r="I29" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.05">
+      <c r="A30" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B30" t="s" s="8">
+      <c r="B30" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C30" t="s" s="9">
+      <c r="C30" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D30" t="s" s="9">
+      <c r="D30" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E30" t="s" s="9">
+      <c r="E30" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F30" t="s" s="9">
+      <c r="F30" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="13">
         <v>751</v>
       </c>
-      <c r="H30" t="s" s="9">
+      <c r="H30" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="I30" t="s" s="9">
+      <c r="I30" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.05">
+      <c r="A31" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B31" t="s" s="8">
+      <c r="B31" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C31" t="s" s="9">
+      <c r="C31" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D31" t="s" s="9">
+      <c r="D31" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E31" t="s" s="9">
+      <c r="E31" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F31" t="s" s="9">
+      <c r="F31" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="13">
         <v>323</v>
       </c>
-      <c r="H31" t="s" s="9">
+      <c r="H31" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I31" t="s" s="9">
+      <c r="I31" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.05">
+      <c r="A32" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B32" t="s" s="8">
+      <c r="B32" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C32" t="s" s="9">
+      <c r="C32" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D32" t="s" s="9">
+      <c r="D32" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E32" t="s" s="9">
+      <c r="E32" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F32" t="s" s="9">
+      <c r="F32" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="13">
         <v>334</v>
       </c>
-      <c r="H32" t="s" s="9">
+      <c r="H32" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="I32" t="s" s="9">
+      <c r="I32" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.05">
+      <c r="A33" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B33" t="s" s="8">
+      <c r="B33" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C33" t="s" s="9">
+      <c r="C33" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D33" t="s" s="9">
+      <c r="D33" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="13">
         <v>-11885</v>
       </c>
-      <c r="F33" t="s" s="9">
+      <c r="F33" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="13">
         <v>374</v>
       </c>
-      <c r="H33" t="s" s="9">
+      <c r="H33" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I33" t="s" s="9">
+      <c r="I33" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.05">
+      <c r="A34" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B34" t="s" s="8">
+      <c r="B34" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C34" t="s" s="9">
+      <c r="C34" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D34" t="s" s="9">
+      <c r="D34" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E34" t="s" s="9">
+      <c r="E34" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F34" t="s" s="9">
+      <c r="F34" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="13">
         <v>459</v>
       </c>
-      <c r="H34" t="s" s="9">
+      <c r="H34" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I34" t="s" s="9">
+      <c r="I34" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.05">
+      <c r="A35" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B35" t="s" s="8">
+      <c r="B35" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C35" t="s" s="9">
+      <c r="C35" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D35" t="s" s="9">
+      <c r="D35" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E35" t="s" s="9">
+      <c r="E35" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F35" t="s" s="9">
+      <c r="F35" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="13">
         <v>265</v>
       </c>
-      <c r="H35" t="s" s="9">
+      <c r="H35" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="I35" t="s" s="9">
+      <c r="I35" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.05">
+      <c r="A36" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B36" t="s" s="8">
+      <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" t="s" s="9">
+      <c r="C36" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D36" t="s" s="9">
+      <c r="D36" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E36" t="s" s="9">
+      <c r="E36" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F36" t="s" s="9">
+      <c r="F36" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="13">
         <v>470</v>
       </c>
-      <c r="H36" t="s" s="9">
+      <c r="H36" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="I36" t="s" s="9">
+      <c r="I36" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.05">
+      <c r="A37" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B37" t="s" s="8">
+      <c r="B37" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C37" t="s" s="9">
+      <c r="C37" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D37" t="s" s="9">
+      <c r="D37" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E37" t="s" s="9">
+      <c r="E37" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F37" t="s" s="9">
+      <c r="F37" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="13">
         <v>5</v>
       </c>
-      <c r="H37" t="s" s="9">
+      <c r="H37" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="I37" t="s" s="9">
+      <c r="I37" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.05">
+      <c r="A38" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B38" t="s" s="8">
+      <c r="B38" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C38" t="s" s="9">
+      <c r="C38" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D38" t="s" s="9">
+      <c r="D38" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E38" t="s" s="9">
+      <c r="E38" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="13">
         <v>-51385</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="13">
         <v>800</v>
       </c>
-      <c r="H38" t="s" s="9">
+      <c r="H38" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="I38" t="s" s="9">
+      <c r="I38" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.05">
+      <c r="A39" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B39" t="s" s="8">
+      <c r="B39" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C39" t="s" s="9">
+      <c r="C39" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D39" t="s" s="9">
+      <c r="D39" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E39" t="s" s="9">
+      <c r="E39" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F39" t="s" s="9">
+      <c r="F39" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="13">
         <v>475</v>
       </c>
-      <c r="H39" t="s" s="9">
+      <c r="H39" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="I39" t="s" s="9">
+      <c r="I39" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.05">
+      <c r="A40" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B40" t="s" s="8">
+      <c r="B40" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C40" t="s" s="9">
+      <c r="C40" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D40" t="s" s="9">
+      <c r="D40" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E40" t="s" s="9">
+      <c r="E40" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="F40" t="s" s="9">
+      <c r="F40" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="13">
         <v>792</v>
       </c>
-      <c r="H40" t="s" s="9">
+      <c r="H40" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="I40" t="s" s="9">
+      <c r="I40" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.05">
+      <c r="A41" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B41" t="s" s="8">
+      <c r="B41" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C41" t="s" s="9">
+      <c r="C41" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D41" t="s" s="9">
+      <c r="D41" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E41" t="s" s="9">
+      <c r="E41" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F41" t="s" s="9">
+      <c r="F41" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="13">
         <v>539</v>
       </c>
-      <c r="H41" t="s" s="9">
+      <c r="H41" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="I41" t="s" s="9">
+      <c r="I41" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.05">
+      <c r="A42" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B42" t="s" s="8">
+      <c r="B42" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C42" t="s" s="9">
+      <c r="C42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D42" t="s" s="9">
+      <c r="D42" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E42" t="s" s="9">
+      <c r="E42" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F42" t="s" s="9">
+      <c r="F42" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="13">
         <v>574</v>
       </c>
-      <c r="H42" t="s" s="9">
+      <c r="H42" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="I42" t="s" s="9">
+      <c r="I42" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.05">
+      <c r="A43" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B43" t="s" s="8">
+      <c r="B43" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C43" t="s" s="9">
+      <c r="C43" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D43" t="s" s="9">
+      <c r="D43" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E43" t="s" s="9">
+      <c r="E43" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F43" t="s" s="9">
+      <c r="F43" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="13">
         <v>640</v>
       </c>
-      <c r="H43" t="s" s="9">
+      <c r="H43" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="I43" t="s" s="9">
+      <c r="I43" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.05">
+      <c r="A44" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B44" t="s" s="8">
+      <c r="B44" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C44" t="s" s="9">
+      <c r="C44" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D44" t="s" s="9">
+      <c r="D44" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E44" t="s" s="9">
+      <c r="E44" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F44" t="s" s="9">
+      <c r="F44" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="13">
         <v>249</v>
       </c>
-      <c r="H44" t="s" s="9">
+      <c r="H44" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="I44" t="s" s="9">
+      <c r="I44" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.05">
+      <c r="A45" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B45" t="s" s="8">
+      <c r="B45" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C45" t="s" s="9">
+      <c r="C45" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D45" t="s" s="9">
+      <c r="D45" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E45" t="s" s="9">
+      <c r="E45" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F45" t="s" s="9">
+      <c r="F45" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="13">
         <v>182</v>
       </c>
-      <c r="H45" t="s" s="9">
+      <c r="H45" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="I45" t="s" s="9">
+      <c r="I45" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.05">
+      <c r="A46" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B46" t="s" s="8">
+      <c r="B46" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C46" t="s" s="9">
+      <c r="C46" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D46" t="s" s="9">
+      <c r="D46" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E46" t="s" s="9">
+      <c r="E46" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F46" t="s" s="9">
+      <c r="F46" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="13">
         <v>309</v>
       </c>
-      <c r="H46" t="s" s="9">
+      <c r="H46" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="I46" t="s" s="9">
+      <c r="I46" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.05">
+      <c r="A47" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B47" t="s" s="8">
+      <c r="B47" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C47" t="s" s="9">
+      <c r="C47" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D47" t="s" s="9">
+      <c r="D47" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E47" t="s" s="9">
+      <c r="E47" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F47" t="s" s="9">
+      <c r="F47" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="13">
         <v>837</v>
       </c>
-      <c r="H47" t="s" s="9">
+      <c r="H47" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="I47" t="s" s="9">
+      <c r="I47" s="11" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.05">
+      <c r="A48" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B48" t="s" s="8">
+      <c r="B48" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C48" t="s" s="9">
+      <c r="C48" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D48" t="s" s="9">
+      <c r="D48" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E48" t="s" s="9">
+      <c r="E48" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F48" t="s" s="9">
+      <c r="F48" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="13">
         <v>761</v>
       </c>
-      <c r="H48" t="s" s="9">
+      <c r="H48" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="I48" t="s" s="9">
+      <c r="I48" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.05">
+      <c r="A49" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B49" t="s" s="8">
+      <c r="B49" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C49" t="s" s="9">
+      <c r="C49" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D49" t="s" s="9">
+      <c r="D49" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E49" t="s" s="9">
+      <c r="E49" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="F49" t="s" s="9">
+      <c r="F49" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="13">
         <v>757</v>
       </c>
-      <c r="H49" t="s" s="9">
+      <c r="H49" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="I49" t="s" s="9">
+      <c r="I49" s="11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.05">
+      <c r="A50" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B50" t="s" s="8">
+      <c r="B50" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C50" t="s" s="9">
+      <c r="C50" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D50" t="s" s="9">
+      <c r="D50" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E50" t="s" s="9">
+      <c r="E50" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F50" t="s" s="9">
+      <c r="F50" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="13">
         <v>235</v>
       </c>
-      <c r="H50" t="s" s="9">
+      <c r="H50" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="I50" t="s" s="9">
+      <c r="I50" s="11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.05">
+      <c r="A51" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B51" t="s" s="8">
+      <c r="B51" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C51" t="s" s="9">
+      <c r="C51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="9">
+      <c r="D51" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E51" t="s" s="9">
+      <c r="E51" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="F51" t="s" s="9">
+      <c r="F51" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="13">
         <v>76</v>
       </c>
-      <c r="H51" t="s" s="9">
+      <c r="H51" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="I51" t="s" s="9">
+      <c r="I51" s="11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.05">
+      <c r="A52" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B52" t="s" s="8">
+      <c r="B52" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C52" t="s" s="9">
+      <c r="C52" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D52" t="s" s="9">
+      <c r="D52" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E52" t="s" s="9">
+      <c r="E52" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="F52" t="s" s="9">
+      <c r="F52" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="13">
         <v>239</v>
       </c>
-      <c r="H52" t="s" s="9">
+      <c r="H52" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="I52" t="s" s="9">
+      <c r="I52" s="11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.05">
+      <c r="A53" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B53" t="s" s="8">
+      <c r="B53" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C53" t="s" s="9">
+      <c r="C53" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D53" t="s" s="9">
+      <c r="D53" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E53" t="s" s="9">
+      <c r="E53" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="F53" t="s" s="9">
+      <c r="F53" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="13">
         <v>412</v>
       </c>
-      <c r="H53" t="s" s="9">
+      <c r="H53" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="I53" t="s" s="9">
+      <c r="I53" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.05">
+      <c r="A54" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B54" t="s" s="8">
+      <c r="B54" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C54" t="s" s="9">
+      <c r="C54" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D54" t="s" s="9">
+      <c r="D54" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E54" t="s" s="9">
+      <c r="E54" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="F54" t="s" s="9">
+      <c r="F54" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="13">
         <v>657</v>
       </c>
-      <c r="H54" t="s" s="9">
+      <c r="H54" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="I54" t="s" s="9">
+      <c r="I54" s="11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.05">
+      <c r="A55" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B55" t="s" s="8">
+      <c r="B55" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C55" t="s" s="9">
+      <c r="C55" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D55" t="s" s="9">
+      <c r="D55" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E55" t="s" s="9">
+      <c r="E55" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="F55" t="s" s="9">
+      <c r="F55" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="13">
         <v>23</v>
       </c>
-      <c r="H55" t="s" s="9">
+      <c r="H55" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="I55" t="s" s="9">
+      <c r="I55" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.05">
+      <c r="A56" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B56" t="s" s="8">
+      <c r="B56" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C56" t="s" s="9">
+      <c r="C56" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D56" t="s" s="9">
+      <c r="D56" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E56" t="s" s="9">
+      <c r="E56" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F56" t="s" s="9">
+      <c r="F56" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="13">
         <v>880</v>
       </c>
-      <c r="H56" t="s" s="9">
+      <c r="H56" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="I56" t="s" s="9">
+      <c r="I56" s="11" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.05">
+      <c r="A57" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B57" t="s" s="8">
+      <c r="B57" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C57" t="s" s="9">
+      <c r="C57" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D57" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E57" t="s" s="9">
+      <c r="D57" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="F57" t="s" s="9">
+      <c r="F57" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="13">
         <v>194</v>
       </c>
-      <c r="H57" t="s" s="9">
+      <c r="H57" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="I57" t="s" s="9">
+      <c r="I57" s="11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.05">
+      <c r="A58" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B58" t="s" s="8">
+      <c r="B58" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C58" t="s" s="9">
+      <c r="C58" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D58" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E58" t="s" s="9">
+      <c r="D58" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F58" t="s" s="9">
+      <c r="F58" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="13">
         <v>193</v>
       </c>
-      <c r="H58" t="s" s="9">
+      <c r="H58" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="I58" t="s" s="9">
+      <c r="I58" s="11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="20.05">
+      <c r="A59" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="B59" t="s" s="8">
+      <c r="B59" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C59" t="s" s="9">
+      <c r="C59" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="D59" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E59" t="s" s="9">
+      <c r="D59" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="F59" t="s" s="9">
+      <c r="F59" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="13">
         <v>118</v>
       </c>
-      <c r="H59" t="s" s="9">
+      <c r="H59" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="I59" t="s" s="9">
+      <c r="I59" s="11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20.05">
+      <c r="A60" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B60" t="s" s="8">
+      <c r="B60" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C60" t="s" s="9">
+      <c r="C60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E60" t="s" s="9">
+      <c r="D60" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="F60" t="s" s="9">
+      <c r="F60" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="13">
         <v>80</v>
       </c>
-      <c r="H60" t="s" s="9">
+      <c r="H60" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="I60" t="s" s="9">
+      <c r="I60" s="11" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.05">
+      <c r="A61" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="B61" t="s" s="8">
+      <c r="B61" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C61" t="s" s="9">
+      <c r="C61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E61" t="s" s="9">
+      <c r="D61" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="F61" t="s" s="9">
+      <c r="F61" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="13">
         <v>85</v>
       </c>
-      <c r="H61" t="s" s="9">
+      <c r="H61" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="I61" t="s" s="9">
+      <c r="I61" s="11" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.05">
+      <c r="A62" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B62" t="s" s="8">
+      <c r="B62" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C62" t="s" s="9">
+      <c r="C62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D62" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E62" t="s" s="9">
+      <c r="D62" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="F62" t="s" s="9">
+      <c r="F62" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="13">
         <v>57</v>
       </c>
-      <c r="H62" t="s" s="9">
+      <c r="H62" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="I62" t="s" s="9">
+      <c r="I62" s="11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.05">
+      <c r="A63" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="B63" t="s" s="8">
+      <c r="B63" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C63" t="s" s="9">
+      <c r="C63" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D63" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E63" t="s" s="9">
+      <c r="D63" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="F63" t="s" s="9">
+      <c r="F63" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="13">
         <v>17</v>
       </c>
-      <c r="H63" t="s" s="9">
+      <c r="H63" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="I63" t="s" s="9">
+      <c r="I63" s="11" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.05">
+      <c r="A64" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B64" t="s" s="8">
+      <c r="B64" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C64" t="s" s="9">
+      <c r="C64" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D64" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E64" s="10">
+      <c r="D64" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E64" s="13">
         <v>-14815</v>
       </c>
-      <c r="F64" t="s" s="9">
+      <c r="F64" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="13">
         <v>4</v>
       </c>
-      <c r="H64" t="s" s="9">
+      <c r="H64" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="I64" t="s" s="9">
+      <c r="I64" s="11" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="20.05">
+      <c r="A65" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B65" t="s" s="8">
+      <c r="B65" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C65" t="s" s="9">
+      <c r="C65" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D65" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E65" t="s" s="9">
+      <c r="D65" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="F65" t="s" s="9">
+      <c r="F65" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="13">
         <v>20</v>
       </c>
-      <c r="H65" t="s" s="9">
+      <c r="H65" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="I65" t="s" s="9">
+      <c r="I65" s="11" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="20.05">
+      <c r="A66" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="B66" t="s" s="8">
+      <c r="B66" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C66" t="s" s="9">
+      <c r="C66" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D66" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E66" t="s" s="9">
+      <c r="D66" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="F66" t="s" s="9">
+      <c r="F66" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="13">
         <v>896</v>
       </c>
-      <c r="H66" t="s" s="9">
+      <c r="H66" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="I66" t="s" s="9">
+      <c r="I66" s="11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="20.05">
+      <c r="A67" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B67" t="s" s="8">
+      <c r="B67" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C67" t="s" s="9">
+      <c r="C67" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D67" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E67" t="s" s="9">
+      <c r="D67" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="F67" t="s" s="9">
+      <c r="F67" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="13">
         <v>51</v>
       </c>
-      <c r="H67" t="s" s="9">
+      <c r="H67" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="I67" t="s" s="9">
+      <c r="I67" s="11" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="20.05">
+      <c r="A68" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B68" t="s" s="8">
+      <c r="B68" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C68" t="s" s="9">
+      <c r="C68" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="D68" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E68" t="s" s="9">
+      <c r="D68" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="F68" t="s" s="9">
+      <c r="F68" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="13">
         <v>27</v>
       </c>
-      <c r="H68" t="s" s="9">
+      <c r="H68" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="I68" t="s" s="9">
+      <c r="I68" s="11" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="20.05">
+      <c r="A69" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B69" t="s" s="8">
+      <c r="B69" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C69" t="s" s="9">
+      <c r="C69" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="D69" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E69" t="s" s="9">
+      <c r="D69" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="F69" t="s" s="9">
+      <c r="F69" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="13">
         <v>36</v>
       </c>
-      <c r="H69" t="s" s="9">
+      <c r="H69" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="I69" t="s" s="9">
+      <c r="I69" s="11" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="20.05">
+      <c r="A70" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B70" t="s" s="8">
+      <c r="B70" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C70" t="s" s="9">
+      <c r="C70" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="D70" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E70" t="s" s="9">
+      <c r="D70" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="F70" t="s" s="9">
+      <c r="F70" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="13">
         <v>25</v>
       </c>
-      <c r="H70" t="s" s="9">
+      <c r="H70" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="I70" t="s" s="9">
+      <c r="I70" s="11" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="20.05">
+      <c r="A71" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="B71" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C71" t="s" s="9">
+      <c r="C71" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="D71" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E71" t="s" s="9">
+      <c r="D71" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="F71" t="s" s="9">
+      <c r="F71" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="13">
         <v>409</v>
       </c>
-      <c r="H71" t="s" s="9">
+      <c r="H71" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="I71" t="s" s="9">
+      <c r="I71" s="11" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="20.05">
+      <c r="A72" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="B72" t="s" s="8">
+      <c r="B72" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C72" t="s" s="9">
+      <c r="C72" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D72" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E72" t="s" s="9">
+      <c r="D72" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="F72" t="s" s="9">
+      <c r="F72" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="13">
         <v>1066</v>
       </c>
-      <c r="H72" t="s" s="9">
+      <c r="H72" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="I72" t="s" s="9">
+      <c r="I72" s="11" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="20.05">
+      <c r="A73" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B73" t="s" s="8">
+      <c r="B73" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C73" t="s" s="9">
+      <c r="C73" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="D73" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E73" t="s" s="9">
+      <c r="D73" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="F73" t="s" s="9">
+      <c r="F73" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="13">
         <v>3</v>
       </c>
-      <c r="H73" t="s" s="9">
+      <c r="H73" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="I73" t="s" s="9">
+      <c r="I73" s="11" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="20.05">
+      <c r="A74" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="B74" t="s" s="8">
+      <c r="B74" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C74" t="s" s="9">
+      <c r="C74" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D74" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E74" t="s" s="9">
+      <c r="D74" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="F74" t="s" s="9">
+      <c r="F74" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="13">
         <v>685</v>
       </c>
-      <c r="H74" t="s" s="9">
+      <c r="H74" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="I74" t="s" s="9">
+      <c r="I74" s="11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="20.05">
+      <c r="A75" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B75" t="s" s="8">
+      <c r="B75" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C75" t="s" s="9">
+      <c r="C75" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D75" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E75" t="s" s="9">
+      <c r="D75" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E75" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="F75" t="s" s="9">
+      <c r="F75" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="13">
         <v>747</v>
       </c>
-      <c r="H75" t="s" s="9">
+      <c r="H75" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="I75" t="s" s="9">
+      <c r="I75" s="11" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="20.05">
+      <c r="A76" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B76" t="s" s="8">
+      <c r="B76" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C76" t="s" s="9">
+      <c r="C76" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="D76" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E76" t="s" s="9">
+      <c r="D76" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="F76" t="s" s="9">
+      <c r="F76" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="13">
         <v>131</v>
       </c>
-      <c r="H76" t="s" s="9">
+      <c r="H76" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="I76" t="s" s="9">
+      <c r="I76" s="11" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="20.05">
+      <c r="A77" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B77" t="s" s="8">
+      <c r="B77" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C77" t="s" s="9">
+      <c r="C77" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="D77" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E77" t="s" s="9">
+      <c r="D77" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E77" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="F77" t="s" s="9">
+      <c r="F77" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="13">
         <v>54</v>
       </c>
-      <c r="H77" t="s" s="9">
+      <c r="H77" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="I77" t="s" s="9">
+      <c r="I77" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="20.05">
+      <c r="A78" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B78" t="s" s="8">
+      <c r="B78" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C78" t="s" s="9">
+      <c r="C78" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D78" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E78" t="s" s="9">
+      <c r="D78" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="F78" t="s" s="9">
+      <c r="F78" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="13">
         <v>171</v>
       </c>
-      <c r="H78" t="s" s="9">
+      <c r="H78" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="I78" t="s" s="9">
+      <c r="I78" s="11" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="20.05">
+      <c r="A79" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B79" t="s" s="8">
+      <c r="B79" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C79" t="s" s="9">
+      <c r="C79" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D79" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E79" t="s" s="9">
+      <c r="D79" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="F79" t="s" s="9">
+      <c r="F79" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="13">
         <v>668</v>
       </c>
-      <c r="H79" t="s" s="9">
+      <c r="H79" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="I79" t="s" s="9">
+      <c r="I79" s="11" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="20.05">
+      <c r="A80" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="B80" t="s" s="8">
+      <c r="B80" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C80" t="s" s="9">
+      <c r="C80" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D80" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E80" t="s" s="9">
+      <c r="D80" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="F80" t="s" s="9">
+      <c r="F80" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="13">
         <v>943</v>
       </c>
-      <c r="H80" t="s" s="9">
+      <c r="H80" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="I80" t="s" s="9">
+      <c r="I80" s="11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="20.05">
+      <c r="A81" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B81" t="s" s="8">
+      <c r="B81" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C81" t="s" s="9">
+      <c r="C81" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D81" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E81" t="s" s="9">
+      <c r="D81" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="F81" t="s" s="9">
+      <c r="F81" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="13">
         <v>827</v>
       </c>
-      <c r="H81" t="s" s="9">
+      <c r="H81" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="I81" t="s" s="9">
+      <c r="I81" s="11" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="20.05">
+      <c r="A82" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="B82" t="s" s="8">
+      <c r="B82" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C82" t="s" s="9">
+      <c r="C82" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D82" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E82" t="s" s="9">
+      <c r="D82" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="F82" t="s" s="9">
+      <c r="F82" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="13">
         <v>809</v>
       </c>
-      <c r="H82" t="s" s="9">
+      <c r="H82" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="I82" t="s" s="9">
+      <c r="I82" s="11" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="20.05">
+      <c r="A83" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B83" t="s" s="8">
+      <c r="B83" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C83" t="s" s="9">
+      <c r="C83" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D83" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E83" t="s" s="9">
+      <c r="D83" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="F83" t="s" s="9">
+      <c r="F83" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="13">
         <v>141</v>
       </c>
-      <c r="H83" t="s" s="9">
+      <c r="H83" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="I83" t="s" s="9">
+      <c r="I83" s="11" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="20.05">
+      <c r="A84" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B84" t="s" s="8">
+      <c r="B84" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C84" t="s" s="9">
+      <c r="C84" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D84" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E84" t="s" s="9">
+      <c r="D84" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="F84" t="s" s="9">
+      <c r="F84" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="13">
         <v>559</v>
       </c>
-      <c r="H84" t="s" s="9">
+      <c r="H84" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I84" t="s" s="9">
+      <c r="I84" s="11" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="20.05">
+      <c r="A85" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="B85" t="s" s="8">
+      <c r="B85" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C85" t="s" s="9">
+      <c r="C85" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D85" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E85" t="s" s="9">
+      <c r="D85" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="F85" t="s" s="9">
+      <c r="F85" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="13">
         <v>350</v>
       </c>
-      <c r="H85" t="s" s="9">
+      <c r="H85" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="I85" t="s" s="9">
+      <c r="I85" s="11" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="20.05">
+      <c r="A86" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B86" t="s" s="8">
+      <c r="B86" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="C86" t="s" s="9">
+      <c r="C86" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D86" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E86" t="s" s="9">
+      <c r="D86" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="F86" t="s" s="9">
+      <c r="F86" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="13">
         <v>447</v>
       </c>
-      <c r="H86" t="s" s="9">
+      <c r="H86" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="I86" t="s" s="9">
+      <c r="I86" s="11" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="20.05">
+      <c r="A87" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="B87" t="s" s="8">
+      <c r="B87" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C87" t="s" s="9">
+      <c r="C87" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D87" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E87" t="s" s="9">
+      <c r="D87" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E87" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="F87" t="s" s="9">
+      <c r="F87" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="13">
         <v>386</v>
       </c>
-      <c r="H87" t="s" s="9">
+      <c r="H87" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="I87" t="s" s="9">
+      <c r="I87" s="11" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="20.05">
+      <c r="A88" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B88" t="s" s="8">
+      <c r="B88" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C88" t="s" s="9">
+      <c r="C88" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D88" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E88" t="s" s="9">
+      <c r="D88" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="F88" t="s" s="9">
+      <c r="F88" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="13">
         <v>188</v>
       </c>
-      <c r="H88" t="s" s="9">
+      <c r="H88" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="I88" t="s" s="9">
+      <c r="I88" s="11" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="20.05">
+      <c r="A89" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="B89" t="s" s="8">
+      <c r="B89" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C89" t="s" s="9">
+      <c r="C89" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D89" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E89" t="s" s="9">
+      <c r="D89" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="13">
         <v>-56105</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="13">
         <v>289</v>
       </c>
-      <c r="H89" t="s" s="9">
+      <c r="H89" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="I89" t="s" s="9">
+      <c r="I89" s="11" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="20.05">
+      <c r="A90" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="B90" t="s" s="8">
+      <c r="B90" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C90" t="s" s="9">
+      <c r="C90" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D90" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E90" t="s" s="9">
+      <c r="D90" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="F90" t="s" s="9">
+      <c r="F90" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="13">
         <v>87</v>
       </c>
-      <c r="H90" t="s" s="9">
+      <c r="H90" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="I90" t="s" s="9">
+      <c r="I90" s="11" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="20.05">
+      <c r="A91" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="B91" t="s" s="8">
+      <c r="B91" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C91" t="s" s="9">
+      <c r="C91" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D91" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E91" t="s" s="9">
+      <c r="D91" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="F91" t="s" s="9">
+      <c r="F91" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="13">
         <v>60</v>
       </c>
-      <c r="H91" t="s" s="9">
+      <c r="H91" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="I91" t="s" s="9">
+      <c r="I91" s="11" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="20.05">
+      <c r="A92" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="B92" t="s" s="8">
+      <c r="B92" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C92" t="s" s="9">
+      <c r="C92" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D92" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E92" t="s" s="9">
+      <c r="D92" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="F92" t="s" s="9">
+      <c r="F92" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="13">
         <v>33</v>
       </c>
-      <c r="H92" t="s" s="9">
+      <c r="H92" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="I92" t="s" s="9">
+      <c r="I92" s="11" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="20.05">
+      <c r="A93" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B93" t="s" s="8">
+      <c r="B93" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C93" t="s" s="9">
+      <c r="C93" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D93" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E93" t="s" s="9">
+      <c r="D93" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="F93" t="s" s="9">
+      <c r="F93" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="13">
         <v>17</v>
       </c>
-      <c r="H93" t="s" s="9">
+      <c r="H93" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="I93" t="s" s="9">
+      <c r="I93" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="20.05">
+      <c r="A94" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B94" t="s" s="8">
+      <c r="B94" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C94" t="s" s="9">
+      <c r="C94" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D94" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E94" t="s" s="9">
+      <c r="D94" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="F94" t="s" s="9">
+      <c r="F94" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="13">
         <v>206</v>
       </c>
-      <c r="H94" t="s" s="9">
+      <c r="H94" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="I94" t="s" s="9">
+      <c r="I94" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="20.05">
+      <c r="A95" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="B95" t="s" s="8">
+      <c r="B95" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="C95" t="s" s="9">
+      <c r="C95" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D95" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E95" t="s" s="9">
+      <c r="D95" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="F95" t="s" s="9">
+      <c r="F95" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="13">
         <v>253</v>
       </c>
-      <c r="H95" t="s" s="9">
+      <c r="H95" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="I95" t="s" s="9">
+      <c r="I95" s="11" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="20.05">
+      <c r="A96" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="B96" t="s" s="8">
+      <c r="B96" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C96" t="s" s="9">
+      <c r="C96" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D96" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E96" t="s" s="9">
+      <c r="D96" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E96" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="F96" t="s" s="9">
+      <c r="F96" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="13">
         <v>629</v>
       </c>
-      <c r="H96" t="s" s="9">
+      <c r="H96" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="I96" t="s" s="9">
+      <c r="I96" s="11" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="20.05">
+      <c r="A97" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="B97" t="s" s="8">
+      <c r="B97" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C97" t="s" s="9">
+      <c r="C97" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D97" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E97" t="s" s="9">
+      <c r="D97" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E97" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="F97" t="s" s="9">
+      <c r="F97" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="13">
         <v>112</v>
       </c>
-      <c r="H97" t="s" s="9">
+      <c r="H97" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="I97" t="s" s="9">
+      <c r="I97" s="11" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="20.05">
+      <c r="A98" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="B98" t="s" s="8">
+      <c r="B98" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C98" t="s" s="9">
+      <c r="C98" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D98" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E98" t="s" s="9">
+      <c r="D98" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="F98" t="s" s="9">
+      <c r="F98" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G98" s="13">
         <v>109</v>
       </c>
-      <c r="H98" t="s" s="9">
+      <c r="H98" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="I98" t="s" s="9">
+      <c r="I98" s="11" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="20.05">
+      <c r="A99" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B99" t="s" s="8">
+      <c r="B99" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="C99" t="s" s="9">
+      <c r="C99" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D99" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E99" t="s" s="9">
+      <c r="D99" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="13">
         <v>-35895</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="13">
         <v>502</v>
       </c>
-      <c r="H99" t="s" s="9">
+      <c r="H99" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="I99" t="s" s="9">
+      <c r="I99" s="11" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="20.05">
+      <c r="A100" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B100" t="s" s="8">
+      <c r="B100" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C100" t="s" s="9">
+      <c r="C100" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D100" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E100" t="s" s="9">
+      <c r="D100" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="F100" t="s" s="9">
+      <c r="F100" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="13">
         <v>66</v>
       </c>
-      <c r="H100" t="s" s="9">
+      <c r="H100" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="I100" t="s" s="9">
+      <c r="I100" s="11" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="20.05">
+      <c r="A101" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B101" t="s" s="8">
+      <c r="B101" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="C101" t="s" s="9">
+      <c r="C101" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D101" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E101" t="s" s="9">
+      <c r="D101" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E101" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="F101" t="s" s="9">
+      <c r="F101" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="13">
         <v>10</v>
       </c>
-      <c r="H101" t="s" s="9">
+      <c r="H101" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="I101" t="s" s="9">
+      <c r="I101" s="11" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="20.05">
+      <c r="A102" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B102" t="s" s="8">
+      <c r="B102" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="C102" t="s" s="9">
+      <c r="C102" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D102" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E102" t="s" s="9">
+      <c r="D102" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="F102" t="s" s="9">
+      <c r="F102" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="13">
         <v>384</v>
       </c>
-      <c r="H102" t="s" s="9">
+      <c r="H102" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I102" t="s" s="9">
+      <c r="I102" s="11" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="20.05">
+      <c r="A103" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B103" t="s" s="8">
+      <c r="B103" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="C103" t="s" s="9">
+      <c r="C103" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D103" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E103" t="s" s="9">
+      <c r="D103" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E103" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="F103" t="s" s="9">
+      <c r="F103" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="13">
         <v>58</v>
       </c>
-      <c r="H103" t="s" s="9">
+      <c r="H103" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="I103" t="s" s="9">
+      <c r="I103" s="11" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="104" ht="20.05" customHeight="1">
-      <c r="A104" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="20.05">
+      <c r="A104" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="B104" t="s" s="8">
+      <c r="B104" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="C104" t="s" s="9">
+      <c r="C104" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D104" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E104" t="s" s="9">
+      <c r="D104" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="F104" t="s" s="9">
+      <c r="F104" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="13">
         <v>67</v>
       </c>
-      <c r="H104" t="s" s="9">
+      <c r="H104" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="I104" t="s" s="9">
+      <c r="I104" s="11" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="105" ht="20.05" customHeight="1">
-      <c r="A105" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="20.05">
+      <c r="A105" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="B105" t="s" s="8">
+      <c r="B105" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="C105" t="s" s="9">
+      <c r="C105" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D105" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E105" t="s" s="9">
+      <c r="D105" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E105" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="F105" t="s" s="9">
+      <c r="F105" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="13">
         <v>823</v>
       </c>
-      <c r="H105" t="s" s="9">
+      <c r="H105" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="I105" t="s" s="9">
+      <c r="I105" s="11" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="106" ht="20.05" customHeight="1">
-      <c r="A106" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="20.05">
+      <c r="A106" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="B106" t="s" s="8">
+      <c r="B106" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="C106" t="s" s="9">
+      <c r="C106" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D106" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E106" t="s" s="9">
+      <c r="D106" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E106" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="F106" t="s" s="9">
+      <c r="F106" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="13">
         <v>754</v>
       </c>
-      <c r="H106" t="s" s="9">
+      <c r="H106" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="I106" t="s" s="9">
+      <c r="I106" s="11" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="20.05">
+      <c r="A107" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="B107" t="s" s="8">
+      <c r="B107" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="C107" t="s" s="9">
+      <c r="C107" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D107" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E107" t="s" s="9">
+      <c r="D107" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="F107" t="s" s="9">
+      <c r="F107" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="13">
         <v>1065</v>
       </c>
-      <c r="H107" t="s" s="9">
+      <c r="H107" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="I107" t="s" s="9">
+      <c r="I107" s="11" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="20.05">
+      <c r="A108" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="B108" t="s" s="8">
+      <c r="B108" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="C108" t="s" s="9">
+      <c r="C108" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D108" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E108" t="s" s="9">
+      <c r="D108" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E108" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="F108" t="s" s="9">
+      <c r="F108" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="13">
         <v>911</v>
       </c>
-      <c r="H108" t="s" s="9">
+      <c r="H108" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="I108" t="s" s="9">
+      <c r="I108" s="11" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="20.05">
+      <c r="A109" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="B109" t="s" s="8">
+      <c r="B109" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="C109" t="s" s="9">
+      <c r="C109" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D109" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E109" t="s" s="9">
+      <c r="D109" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E109" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="F109" t="s" s="9">
+      <c r="F109" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="13">
         <v>545</v>
       </c>
-      <c r="H109" t="s" s="9">
+      <c r="H109" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="I109" t="s" s="9">
+      <c r="I109" s="11" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="20.05">
+      <c r="A110" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="B110" t="s" s="8">
+      <c r="B110" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="C110" t="s" s="9">
+      <c r="C110" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D110" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E110" t="s" s="9">
+      <c r="D110" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E110" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="F110" t="s" s="9">
+      <c r="F110" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="G110" s="10">
+      <c r="G110" s="13">
         <v>569</v>
       </c>
-      <c r="H110" t="s" s="9">
+      <c r="H110" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="I110" t="s" s="9">
+      <c r="I110" s="11" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="20.05">
+      <c r="A111" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="B111" t="s" s="8">
+      <c r="B111" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="C111" t="s" s="9">
+      <c r="C111" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D111" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E111" t="s" s="9">
+      <c r="D111" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E111" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="F111" t="s" s="9">
+      <c r="F111" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="G111" s="10">
+      <c r="G111" s="13">
         <v>789</v>
       </c>
-      <c r="H111" t="s" s="9">
+      <c r="H111" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="I111" t="s" s="9">
+      <c r="I111" s="11" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="20.05">
+      <c r="A112" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="B112" t="s" s="8">
+      <c r="B112" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="C112" t="s" s="9">
+      <c r="C112" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D112" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E112" t="s" s="9">
+      <c r="D112" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E112" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="13">
         <v>-54485</v>
       </c>
-      <c r="G112" s="10">
+      <c r="G112" s="13">
         <v>240</v>
       </c>
-      <c r="H112" t="s" s="9">
+      <c r="H112" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="I112" t="s" s="9">
+      <c r="I112" s="11" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="20.05">
+      <c r="A113" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="B113" t="s" s="8">
+      <c r="B113" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C113" t="s" s="9">
+      <c r="C113" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D113" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E113" t="s" s="9">
+      <c r="D113" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E113" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="F113" t="s" s="9">
+      <c r="F113" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="G113" s="10">
+      <c r="G113" s="13">
         <v>562</v>
       </c>
-      <c r="H113" t="s" s="9">
+      <c r="H113" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="I113" t="s" s="9">
+      <c r="I113" s="11" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="20.05">
+      <c r="A114" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="B114" t="s" s="8">
+      <c r="B114" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="C114" t="s" s="9">
+      <c r="C114" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="D114" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E114" t="s" s="9">
+      <c r="D114" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E114" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="F114" t="s" s="9">
+      <c r="F114" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="13">
         <v>9</v>
       </c>
-      <c r="H114" t="s" s="9">
+      <c r="H114" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="I114" t="s" s="9">
+      <c r="I114" s="11" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="115" ht="20.05" customHeight="1">
-      <c r="A115" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="20.05">
+      <c r="A115" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="B115" t="s" s="8">
+      <c r="B115" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="C115" t="s" s="9">
+      <c r="C115" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="D115" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E115" t="s" s="9">
+      <c r="D115" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E115" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="F115" t="s" s="9">
+      <c r="F115" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="G115" s="10">
+      <c r="G115" s="13">
         <v>3</v>
       </c>
-      <c r="H115" t="s" s="9">
+      <c r="H115" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="I115" t="s" s="9">
+      <c r="I115" s="11" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="20.05">
+      <c r="A116" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="B116" t="s" s="8">
+      <c r="B116" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="C116" t="s" s="9">
+      <c r="C116" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="D116" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E116" t="s" s="9">
+      <c r="D116" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E116" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="F116" t="s" s="9">
+      <c r="F116" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="13">
         <v>7</v>
       </c>
-      <c r="H116" t="s" s="9">
+      <c r="H116" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="I116" t="s" s="9">
+      <c r="I116" s="11" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="117" ht="20.05" customHeight="1">
-      <c r="A117" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="20.05">
+      <c r="A117" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="B117" t="s" s="8">
+      <c r="B117" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="C117" t="s" s="9">
+      <c r="C117" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="D117" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E117" t="s" s="9">
+      <c r="D117" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E117" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="F117" t="s" s="9">
+      <c r="F117" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="13">
         <v>2</v>
       </c>
-      <c r="H117" t="s" s="9">
+      <c r="H117" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="I117" t="s" s="9">
+      <c r="I117" s="11" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="118" ht="20.05" customHeight="1">
-      <c r="A118" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="20.05">
+      <c r="A118" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="B118" t="s" s="8">
+      <c r="B118" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="C118" t="s" s="9">
+      <c r="C118" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="D118" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E118" t="s" s="9">
+      <c r="D118" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E118" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="F118" t="s" s="9">
+      <c r="F118" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="13">
         <v>17</v>
       </c>
-      <c r="H118" t="s" s="9">
+      <c r="H118" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="I118" t="s" s="9">
+      <c r="I118" s="11" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="119" ht="20.05" customHeight="1">
-      <c r="A119" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="20.05">
+      <c r="A119" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="B119" t="s" s="8">
+      <c r="B119" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="C119" t="s" s="9">
+      <c r="C119" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D119" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E119" t="s" s="9">
+      <c r="D119" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E119" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="F119" t="s" s="9">
+      <c r="F119" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G119" s="13">
         <v>83</v>
       </c>
-      <c r="H119" t="s" s="9">
+      <c r="H119" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="I119" t="s" s="9">
+      <c r="I119" s="11" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="120" ht="20.05" customHeight="1">
-      <c r="A120" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="20.05">
+      <c r="A120" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="B120" t="s" s="8">
+      <c r="B120" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="C120" t="s" s="9">
+      <c r="C120" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D120" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E120" t="s" s="9">
+      <c r="D120" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E120" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="F120" t="s" s="9">
+      <c r="F120" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G120" s="13">
         <v>88</v>
       </c>
-      <c r="H120" t="s" s="9">
+      <c r="H120" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="I120" t="s" s="9">
+      <c r="I120" s="11" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="121" ht="20.05" customHeight="1">
-      <c r="A121" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="20.05">
+      <c r="A121" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B121" t="s" s="8">
+      <c r="B121" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="C121" t="s" s="9">
+      <c r="C121" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D121" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E121" t="s" s="9">
+      <c r="D121" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E121" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="F121" t="s" s="9">
+      <c r="F121" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G121" s="13">
         <v>615</v>
       </c>
-      <c r="H121" t="s" s="9">
+      <c r="H121" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="I121" t="s" s="9">
+      <c r="I121" s="11" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="122" ht="20.05" customHeight="1">
-      <c r="A122" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="20.05">
+      <c r="A122" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="B122" t="s" s="8">
+      <c r="B122" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C122" t="s" s="9">
+      <c r="C122" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="D122" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E122" t="s" s="9">
+      <c r="D122" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E122" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="F122" t="s" s="9">
+      <c r="F122" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="G122" s="10">
+      <c r="G122" s="13">
         <v>84</v>
       </c>
-      <c r="H122" t="s" s="9">
+      <c r="H122" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="I122" t="s" s="9">
+      <c r="I122" s="11" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="123" ht="20.05" customHeight="1">
-      <c r="A123" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="20.05">
+      <c r="A123" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="B123" t="s" s="8">
+      <c r="B123" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="C123" t="s" s="9">
+      <c r="C123" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D123" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E123" t="s" s="9">
+      <c r="D123" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E123" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="F123" t="s" s="9">
+      <c r="F123" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="13">
         <v>322</v>
       </c>
-      <c r="H123" t="s" s="9">
+      <c r="H123" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="I123" t="s" s="9">
+      <c r="I123" s="11" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="124" ht="20.05" customHeight="1">
-      <c r="A124" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="20.05">
+      <c r="A124" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="B124" t="s" s="8">
+      <c r="B124" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="C124" t="s" s="9">
+      <c r="C124" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D124" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E124" t="s" s="9">
+      <c r="D124" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E124" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="F124" t="s" s="9">
+      <c r="F124" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="G124" s="10">
+      <c r="G124" s="13">
         <v>724</v>
       </c>
-      <c r="H124" t="s" s="9">
+      <c r="H124" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="I124" t="s" s="9">
+      <c r="I124" s="11" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="125" ht="20.05" customHeight="1">
-      <c r="A125" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="20.05">
+      <c r="A125" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B125" t="s" s="8">
+      <c r="B125" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="C125" t="s" s="9">
+      <c r="C125" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D125" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E125" t="s" s="9">
+      <c r="D125" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E125" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="F125" t="s" s="9">
+      <c r="F125" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="G125" s="10">
+      <c r="G125" s="13">
         <v>754</v>
       </c>
-      <c r="H125" t="s" s="9">
+      <c r="H125" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="I125" t="s" s="9">
+      <c r="I125" s="11" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="126" ht="20.05" customHeight="1">
-      <c r="A126" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="20.05">
+      <c r="A126" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="B126" t="s" s="8">
+      <c r="B126" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="C126" t="s" s="9">
+      <c r="C126" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D126" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E126" t="s" s="9">
+      <c r="D126" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E126" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="F126" t="s" s="9">
+      <c r="F126" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="G126" s="10">
+      <c r="G126" s="13">
         <v>4</v>
       </c>
-      <c r="H126" t="s" s="9">
+      <c r="H126" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="I126" t="s" s="9">
+      <c r="I126" s="11" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="127" ht="20.05" customHeight="1">
-      <c r="A127" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="20.05">
+      <c r="A127" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B127" t="s" s="8">
+      <c r="B127" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="C127" t="s" s="9">
+      <c r="C127" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D127" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E127" t="s" s="9">
+      <c r="D127" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E127" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="F127" t="s" s="9">
+      <c r="F127" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="13">
         <v>78</v>
       </c>
-      <c r="H127" t="s" s="9">
+      <c r="H127" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="I127" t="s" s="9">
+      <c r="I127" s="11" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="128" ht="20.05" customHeight="1">
-      <c r="A128" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="20.05">
+      <c r="A128" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="B128" t="s" s="8">
+      <c r="B128" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="C128" t="s" s="9">
+      <c r="C128" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D128" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E128" t="s" s="9">
+      <c r="D128" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E128" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="F128" t="s" s="9">
+      <c r="F128" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="G128" s="10">
+      <c r="G128" s="13">
         <v>186</v>
       </c>
-      <c r="H128" t="s" s="9">
+      <c r="H128" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="I128" t="s" s="9">
+      <c r="I128" s="11" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="20.05">
+      <c r="A129" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="B129" t="s" s="8">
+      <c r="B129" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="C129" t="s" s="9">
+      <c r="C129" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D129" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E129" t="s" s="9">
+      <c r="D129" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E129" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="F129" t="s" s="9">
+      <c r="F129" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="13">
         <v>18</v>
       </c>
-      <c r="H129" t="s" s="9">
+      <c r="H129" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="I129" t="s" s="9">
+      <c r="I129" s="11" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="130" ht="20.05" customHeight="1">
-      <c r="A130" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="20.05">
+      <c r="A130" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="B130" t="s" s="8">
+      <c r="B130" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="C130" t="s" s="9">
+      <c r="C130" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D130" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E130" t="s" s="9">
+      <c r="D130" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E130" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="F130" t="s" s="9">
+      <c r="F130" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="G130" s="10">
+      <c r="G130" s="13">
         <v>88</v>
       </c>
-      <c r="H130" t="s" s="9">
+      <c r="H130" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="I130" t="s" s="9">
+      <c r="I130" s="11" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="131" ht="20.05" customHeight="1">
-      <c r="A131" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="20.05">
+      <c r="A131" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="B131" t="s" s="8">
+      <c r="B131" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="C131" t="s" s="9">
+      <c r="C131" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D131" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E131" t="s" s="9">
+      <c r="D131" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E131" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="F131" t="s" s="9">
+      <c r="F131" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="G131" s="10">
+      <c r="G131" s="13">
         <v>35</v>
       </c>
-      <c r="H131" t="s" s="9">
+      <c r="H131" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="I131" t="s" s="9">
+      <c r="I131" s="11" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="132" ht="20.05" customHeight="1">
-      <c r="A132" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="20.05">
+      <c r="A132" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="B132" t="s" s="8">
+      <c r="B132" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="C132" t="s" s="9">
+      <c r="C132" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D132" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E132" t="s" s="9">
+      <c r="D132" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E132" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="F132" t="s" s="9">
+      <c r="F132" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="G132" s="10">
+      <c r="G132" s="13">
         <v>5</v>
       </c>
-      <c r="H132" t="s" s="9">
+      <c r="H132" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="I132" t="s" s="9">
+      <c r="I132" s="11" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="133" ht="20.05" customHeight="1">
-      <c r="A133" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="20.05">
+      <c r="A133" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="B133" t="s" s="8">
+      <c r="B133" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="C133" t="s" s="9">
+      <c r="C133" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D133" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E133" t="s" s="9">
+      <c r="D133" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E133" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="F133" t="s" s="9">
+      <c r="F133" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="G133" s="10">
+      <c r="G133" s="13">
         <v>5</v>
       </c>
-      <c r="H133" t="s" s="9">
+      <c r="H133" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="I133" t="s" s="9">
+      <c r="I133" s="11" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="134" ht="20.05" customHeight="1">
-      <c r="A134" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="20.05">
+      <c r="A134" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="B134" t="s" s="8">
+      <c r="B134" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="C134" t="s" s="9">
+      <c r="C134" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D134" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E134" t="s" s="9">
+      <c r="D134" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E134" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="F134" t="s" s="9">
+      <c r="F134" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="G134" s="10">
+      <c r="G134" s="13">
         <v>654</v>
       </c>
-      <c r="H134" t="s" s="9">
+      <c r="H134" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="I134" t="s" s="9">
+      <c r="I134" s="11" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="135" ht="20.05" customHeight="1">
-      <c r="A135" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="20.05">
+      <c r="A135" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="B135" t="s" s="8">
+      <c r="B135" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="C135" t="s" s="9">
+      <c r="C135" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D135" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E135" t="s" s="9">
+      <c r="D135" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E135" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="F135" t="s" s="9">
+      <c r="F135" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="G135" s="10">
+      <c r="G135" s="13">
         <v>5</v>
       </c>
-      <c r="H135" t="s" s="9">
+      <c r="H135" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="I135" t="s" s="9">
+      <c r="I135" s="11" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="136" ht="20.05" customHeight="1">
-      <c r="A136" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="20.05">
+      <c r="A136" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="B136" t="s" s="8">
+      <c r="B136" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="C136" t="s" s="9">
+      <c r="C136" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="D136" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E136" t="s" s="9">
+      <c r="D136" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E136" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="F136" t="s" s="9">
+      <c r="F136" s="12" t="s">
         <v>790</v>
       </c>
-      <c r="G136" s="10">
+      <c r="G136" s="13">
         <v>7</v>
       </c>
-      <c r="H136" t="s" s="9">
+      <c r="H136" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="I136" t="s" s="9">
+      <c r="I136" s="11" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="137" ht="20.05" customHeight="1">
-      <c r="A137" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="20.05">
+      <c r="A137" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B137" t="s" s="8">
+      <c r="B137" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="C137" t="s" s="9">
+      <c r="C137" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D137" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E137" t="s" s="9">
+      <c r="D137" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E137" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="F137" t="s" s="9">
+      <c r="F137" s="12" t="s">
         <v>795</v>
       </c>
-      <c r="G137" s="10">
+      <c r="G137" s="13">
         <v>802</v>
       </c>
-      <c r="H137" t="s" s="9">
+      <c r="H137" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="I137" t="s" s="9">
+      <c r="I137" s="11" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="138" ht="20.05" customHeight="1">
-      <c r="A138" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="20.05">
+      <c r="A138" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="B138" t="s" s="8">
+      <c r="B138" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="C138" t="s" s="9">
+      <c r="C138" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D138" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E138" t="s" s="9">
+      <c r="D138" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E138" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="F138" t="s" s="9">
+      <c r="F138" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="G138" s="10">
+      <c r="G138" s="13">
         <v>415</v>
       </c>
-      <c r="H138" t="s" s="9">
+      <c r="H138" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="I138" t="s" s="9">
+      <c r="I138" s="11" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="139" ht="20.05" customHeight="1">
-      <c r="A139" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="20.05">
+      <c r="A139" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="B139" t="s" s="8">
+      <c r="B139" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="C139" t="s" s="9">
+      <c r="C139" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D139" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E139" t="s" s="9">
+      <c r="D139" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E139" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="F139" t="s" s="9">
+      <c r="F139" s="12" t="s">
         <v>807</v>
       </c>
-      <c r="G139" s="10">
+      <c r="G139" s="13">
         <v>594</v>
       </c>
-      <c r="H139" t="s" s="9">
+      <c r="H139" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="I139" t="s" s="9">
+      <c r="I139" s="11" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="140" ht="20.05" customHeight="1">
-      <c r="A140" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="20.05">
+      <c r="A140" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="B140" t="s" s="8">
+      <c r="B140" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="C140" t="s" s="9">
+      <c r="C140" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D140" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E140" t="s" s="9">
+      <c r="D140" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E140" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="F140" t="s" s="9">
+      <c r="F140" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G140" s="13">
         <v>661</v>
       </c>
-      <c r="H140" t="s" s="9">
+      <c r="H140" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="I140" t="s" s="9">
+      <c r="I140" s="11" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="141" ht="20.05" customHeight="1">
-      <c r="A141" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="20.05">
+      <c r="A141" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="B141" t="s" s="8">
+      <c r="B141" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="C141" t="s" s="9">
+      <c r="C141" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D141" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E141" t="s" s="9">
+      <c r="D141" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E141" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="F141" t="s" s="9">
+      <c r="F141" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="G141" s="10">
+      <c r="G141" s="13">
         <v>544</v>
       </c>
-      <c r="H141" t="s" s="9">
+      <c r="H141" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="I141" t="s" s="9">
+      <c r="I141" s="11" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="142" ht="20.05" customHeight="1">
-      <c r="A142" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="20.05">
+      <c r="A142" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="B142" t="s" s="8">
+      <c r="B142" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="C142" t="s" s="9">
+      <c r="C142" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D142" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E142" t="s" s="9">
+      <c r="D142" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E142" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="F142" t="s" s="9">
+      <c r="F142" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G142" s="13">
         <v>452</v>
       </c>
-      <c r="H142" t="s" s="9">
+      <c r="H142" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="I142" t="s" s="9">
+      <c r="I142" s="11" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="143" ht="20.05" customHeight="1">
-      <c r="A143" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="20.05">
+      <c r="A143" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="B143" t="s" s="8">
+      <c r="B143" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="C143" t="s" s="9">
+      <c r="C143" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D143" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E143" t="s" s="9">
+      <c r="D143" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E143" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="F143" t="s" s="9">
+      <c r="F143" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="G143" s="10">
+      <c r="G143" s="13">
         <v>650</v>
       </c>
-      <c r="H143" t="s" s="9">
+      <c r="H143" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="I143" t="s" s="9">
+      <c r="I143" s="11" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="144" ht="20.05" customHeight="1">
-      <c r="A144" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="20.05">
+      <c r="A144" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="B144" t="s" s="8">
+      <c r="B144" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="C144" t="s" s="9">
+      <c r="C144" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D144" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E144" t="s" s="9">
+      <c r="D144" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E144" s="12" t="s">
         <v>835</v>
       </c>
-      <c r="F144" t="s" s="9">
+      <c r="F144" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="G144" s="10">
+      <c r="G144" s="13">
         <v>550</v>
       </c>
-      <c r="H144" t="s" s="9">
+      <c r="H144" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="I144" t="s" s="9">
+      <c r="I144" s="11" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="145" ht="20.05" customHeight="1">
-      <c r="A145" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="20.05">
+      <c r="A145" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="B145" t="s" s="8">
+      <c r="B145" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="C145" t="s" s="9">
+      <c r="C145" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D145" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E145" t="s" s="9">
+      <c r="D145" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E145" s="12" t="s">
         <v>841</v>
       </c>
-      <c r="F145" t="s" s="9">
+      <c r="F145" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="G145" s="10">
+      <c r="G145" s="13">
         <v>750</v>
       </c>
-      <c r="H145" t="s" s="9">
+      <c r="H145" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="I145" t="s" s="9">
+      <c r="I145" s="11" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="146" ht="20.05" customHeight="1">
-      <c r="A146" t="s" s="7">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="20.05">
+      <c r="A146" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="B146" t="s" s="8">
+      <c r="B146" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="C146" t="s" s="9">
+      <c r="C146" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D146" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E146" t="s" s="9">
+      <c r="D146" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E146" s="12" t="s">
         <v>847</v>
       </c>
-      <c r="F146" t="s" s="9">
+      <c r="F146" s="12" t="s">
         <v>848</v>
       </c>
-      <c r="G146" s="10">
+      <c r="G146" s="13">
         <v>236</v>
       </c>
-      <c r="H146" t="s" s="9">
+      <c r="H146" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="I146" t="s" s="9">
+      <c r="I146" s="11" t="s">
         <v>850</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/djangoConfig/api/data/aeroportos.xlsx
+++ b/djangoConfig/api/data/aeroportos.xlsx
@@ -475,7 +475,7 @@
     <t>HORÁCIO DE MATTOS</t>
   </si>
   <si>
-    <t>LENÓIS</t>
+    <t>LENÇÓIS</t>
   </si>
   <si>
     <t>SNTF</t>
@@ -2590,7 +2590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2772,10 +2772,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3099,7 +3099,7 @@
     <col min="9" max="9" style="14" width="25.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5" hidden="1">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5" hidden="1">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5" hidden="1">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5" hidden="1">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5" hidden="1">
       <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5" hidden="1">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5" hidden="1">
       <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5" hidden="1">
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5" hidden="1">
       <c r="A10" s="9" t="s">
         <v>52</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5" hidden="1">
       <c r="A11" s="9" t="s">
         <v>57</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5" hidden="1">
       <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5" hidden="1">
       <c r="A13" s="9" t="s">
         <v>68</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5" hidden="1">
       <c r="A14" s="9" t="s">
         <v>73</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5" hidden="1">
       <c r="A15" s="9" t="s">
         <v>78</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5" hidden="1">
       <c r="A16" s="9" t="s">
         <v>84</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5" hidden="1">
       <c r="A17" s="9" t="s">
         <v>89</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5" hidden="1">
       <c r="A18" s="9" t="s">
         <v>96</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5" hidden="1">
       <c r="A19" s="9" t="s">
         <v>102</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5" hidden="1">
       <c r="A20" s="9" t="s">
         <v>108</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5" hidden="1">
       <c r="A21" s="9" t="s">
         <v>113</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5" hidden="1">
       <c r="A22" s="9" t="s">
         <v>120</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5" hidden="1">
       <c r="A23" s="9" t="s">
         <v>125</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5" hidden="1">
       <c r="A24" s="9" t="s">
         <v>131</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5" hidden="1">
       <c r="A25" s="9" t="s">
         <v>137</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5" hidden="1">
       <c r="A26" s="9" t="s">
         <v>143</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="9" t="s">
         <v>148</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5" hidden="1">
       <c r="A28" s="9" t="s">
         <v>154</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5" hidden="1">
       <c r="A29" s="9" t="s">
         <v>159</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5" hidden="1">
       <c r="A30" s="9" t="s">
         <v>164</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5" hidden="1">
       <c r="A31" s="9" t="s">
         <v>171</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5" hidden="1">
       <c r="A32" s="9" t="s">
         <v>177</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5" hidden="1">
       <c r="A33" s="9" t="s">
         <v>182</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5" hidden="1">
       <c r="A34" s="9" t="s">
         <v>188</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5" hidden="1">
       <c r="A35" s="9" t="s">
         <v>194</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5" hidden="1">
       <c r="A36" s="9" t="s">
         <v>200</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>205</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5" hidden="1">
       <c r="A37" s="9" t="s">
         <v>206</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5" hidden="1">
       <c r="A38" s="9" t="s">
         <v>213</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5" hidden="1">
       <c r="A39" s="9" t="s">
         <v>218</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>223</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5" hidden="1">
       <c r="A40" s="9" t="s">
         <v>224</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5" hidden="1">
       <c r="A41" s="9" t="s">
         <v>229</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5" hidden="1">
       <c r="A42" s="9" t="s">
         <v>235</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5" hidden="1">
       <c r="A43" s="9" t="s">
         <v>240</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5" hidden="1">
       <c r="A44" s="9" t="s">
         <v>246</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>251</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5" hidden="1">
       <c r="A45" s="9" t="s">
         <v>252</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5" hidden="1">
       <c r="A46" s="9" t="s">
         <v>257</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>262</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5" hidden="1">
       <c r="A47" s="9" t="s">
         <v>263</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>267</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5" hidden="1">
       <c r="A48" s="9" t="s">
         <v>268</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>272</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5" hidden="1">
       <c r="A49" s="9" t="s">
         <v>273</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>279</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5" hidden="1">
       <c r="A50" s="9" t="s">
         <v>280</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5" hidden="1">
       <c r="A51" s="9" t="s">
         <v>286</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>291</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5" hidden="1">
       <c r="A52" s="9" t="s">
         <v>292</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5" hidden="1">
       <c r="A53" s="9" t="s">
         <v>300</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5" hidden="1">
       <c r="A54" s="9" t="s">
         <v>306</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5" hidden="1">
       <c r="A55" s="9" t="s">
         <v>311</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5" hidden="1">
       <c r="A56" s="9" t="s">
         <v>318</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5" hidden="1">
       <c r="A57" s="9" t="s">
         <v>325</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>331</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5" hidden="1">
       <c r="A58" s="9" t="s">
         <v>332</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>337</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5" hidden="1">
       <c r="A59" s="9" t="s">
         <v>338</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5" hidden="1">
       <c r="A60" s="9" t="s">
         <v>345</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>350</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5" hidden="1">
       <c r="A61" s="9" t="s">
         <v>351</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>355</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5" hidden="1">
       <c r="A62" s="9" t="s">
         <v>356</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5" hidden="1">
       <c r="A63" s="9" t="s">
         <v>361</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5" hidden="1">
       <c r="A64" s="9" t="s">
         <v>368</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5" hidden="1">
       <c r="A65" s="9" t="s">
         <v>373</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5" hidden="1">
       <c r="A66" s="9" t="s">
         <v>379</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5" hidden="1">
       <c r="A67" s="9" t="s">
         <v>385</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5" hidden="1">
       <c r="A68" s="9" t="s">
         <v>390</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5" hidden="1">
       <c r="A69" s="9" t="s">
         <v>397</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5" hidden="1">
       <c r="A70" s="9" t="s">
         <v>403</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>408</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5" hidden="1">
       <c r="A71" s="9" t="s">
         <v>409</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>414</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5" hidden="1">
       <c r="A72" s="9" t="s">
         <v>415</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>421</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5" hidden="1">
       <c r="A73" s="9" t="s">
         <v>422</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>428</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5" hidden="1">
       <c r="A74" s="9" t="s">
         <v>429</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>434</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5" hidden="1">
       <c r="A75" s="9" t="s">
         <v>435</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>440</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5" hidden="1">
       <c r="A76" s="9" t="s">
         <v>441</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>447</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5" hidden="1">
       <c r="A77" s="9" t="s">
         <v>448</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>453</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5" hidden="1">
       <c r="A78" s="9" t="s">
         <v>454</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>459</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5" hidden="1">
       <c r="A79" s="9" t="s">
         <v>460</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5" hidden="1">
       <c r="A80" s="9" t="s">
         <v>466</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5" hidden="1">
       <c r="A81" s="9" t="s">
         <v>472</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>477</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.5" hidden="1">
       <c r="A82" s="9" t="s">
         <v>478</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>483</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16.5" hidden="1">
       <c r="A83" s="9" t="s">
         <v>484</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16.5" hidden="1">
       <c r="A84" s="9" t="s">
         <v>489</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>493</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16.5" hidden="1">
       <c r="A85" s="9" t="s">
         <v>494</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16.5" hidden="1">
       <c r="A86" s="9" t="s">
         <v>499</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>504</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16.5" hidden="1">
       <c r="A87" s="9" t="s">
         <v>505</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16.5" hidden="1">
       <c r="A88" s="9" t="s">
         <v>511</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>516</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16.5" hidden="1">
       <c r="A89" s="9" t="s">
         <v>517</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>521</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16.5" hidden="1">
       <c r="A90" s="9" t="s">
         <v>522</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16.5" hidden="1">
       <c r="A91" s="9" t="s">
         <v>527</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>532</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16.5" hidden="1">
       <c r="A92" s="9" t="s">
         <v>533</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>537</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16.5" hidden="1">
       <c r="A93" s="9" t="s">
         <v>538</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16.5" hidden="1">
       <c r="A94" s="9" t="s">
         <v>544</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16.5" hidden="1">
       <c r="A95" s="9" t="s">
         <v>549</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>553</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16.5" hidden="1">
       <c r="A96" s="9" t="s">
         <v>554</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16.5" hidden="1">
       <c r="A97" s="9" t="s">
         <v>560</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16.5" hidden="1">
       <c r="A98" s="9" t="s">
         <v>565</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>570</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16.5" hidden="1">
       <c r="A99" s="9" t="s">
         <v>571</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>575</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16.5" hidden="1">
       <c r="A100" s="9" t="s">
         <v>576</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>581</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16.5" hidden="1">
       <c r="A101" s="9" t="s">
         <v>582</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>587</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="16.5" hidden="1">
       <c r="A102" s="9" t="s">
         <v>588</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>593</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="16.5" hidden="1">
       <c r="A103" s="9" t="s">
         <v>594</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>598</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="16.5" hidden="1">
       <c r="A104" s="9" t="s">
         <v>599</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>604</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="16.5" hidden="1">
       <c r="A105" s="9" t="s">
         <v>605</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="16.5" hidden="1">
       <c r="A106" s="9" t="s">
         <v>611</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>616</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="16.5" hidden="1">
       <c r="A107" s="9" t="s">
         <v>617</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>622</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="16.5" hidden="1">
       <c r="A108" s="9" t="s">
         <v>623</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>628</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="16.5" hidden="1">
       <c r="A109" s="9" t="s">
         <v>629</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>634</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="16.5" hidden="1">
       <c r="A110" s="9" t="s">
         <v>635</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>640</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16.5" hidden="1">
       <c r="A111" s="9" t="s">
         <v>641</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>646</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="16.5" hidden="1">
       <c r="A112" s="9" t="s">
         <v>647</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>651</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="16.5" hidden="1">
       <c r="A113" s="9" t="s">
         <v>652</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>657</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="16.5" hidden="1">
       <c r="A114" s="9" t="s">
         <v>658</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="16.5" hidden="1">
       <c r="A115" s="9" t="s">
         <v>665</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="16.5" hidden="1">
       <c r="A116" s="9" t="s">
         <v>670</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>674</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="16.5" hidden="1">
       <c r="A117" s="9" t="s">
         <v>675</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>679</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="16.5" hidden="1">
       <c r="A118" s="9" t="s">
         <v>680</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>685</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="16.5" hidden="1">
       <c r="A119" s="9" t="s">
         <v>686</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>691</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="16.5" hidden="1">
       <c r="A120" s="9" t="s">
         <v>692</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>697</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="16.5" hidden="1">
       <c r="A121" s="9" t="s">
         <v>698</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>702</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="16.5" hidden="1">
       <c r="A122" s="9" t="s">
         <v>703</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>709</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="16.5" hidden="1">
       <c r="A123" s="9" t="s">
         <v>710</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>714</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="16.5" hidden="1">
       <c r="A124" s="9" t="s">
         <v>715</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>720</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="16.5" hidden="1">
       <c r="A125" s="9" t="s">
         <v>721</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>726</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="16.5" hidden="1">
       <c r="A126" s="9" t="s">
         <v>727</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>732</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="16.5" hidden="1">
       <c r="A127" s="9" t="s">
         <v>733</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>738</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="16.5" hidden="1">
       <c r="A128" s="9" t="s">
         <v>739</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>744</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="16.5" hidden="1">
       <c r="A129" s="9" t="s">
         <v>745</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="16.5" hidden="1">
       <c r="A130" s="9" t="s">
         <v>751</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>755</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="16.5" hidden="1">
       <c r="A131" s="9" t="s">
         <v>756</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>761</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="16.5" hidden="1">
       <c r="A132" s="9" t="s">
         <v>762</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>767</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="16.5" hidden="1">
       <c r="A133" s="9" t="s">
         <v>768</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>773</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="16.5" hidden="1">
       <c r="A134" s="9" t="s">
         <v>774</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>779</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="16.5" hidden="1">
       <c r="A135" s="9" t="s">
         <v>780</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>785</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="16.5" hidden="1">
       <c r="A136" s="9" t="s">
         <v>786</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>791</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="16.5" hidden="1">
       <c r="A137" s="9" t="s">
         <v>792</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>797</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="16.5" hidden="1">
       <c r="A138" s="9" t="s">
         <v>798</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>803</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="16.5" hidden="1">
       <c r="A139" s="9" t="s">
         <v>804</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>809</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="16.5" hidden="1">
       <c r="A140" s="9" t="s">
         <v>810</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="16.5" hidden="1">
       <c r="A141" s="9" t="s">
         <v>816</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>821</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="16.5" hidden="1">
       <c r="A142" s="9" t="s">
         <v>822</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>826</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="16.5" hidden="1">
       <c r="A143" s="9" t="s">
         <v>827</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>832</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="16.5" hidden="1">
       <c r="A144" s="9" t="s">
         <v>833</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>838</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="16.5" hidden="1">
       <c r="A145" s="9" t="s">
         <v>839</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>844</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="20.05">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="16.5" hidden="1">
       <c r="A146" s="9" t="s">
         <v>845</v>
       </c>
